--- a/Pseudo Code/addTrainVal.xlsx
+++ b/Pseudo Code/addTrainVal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Pseudo Code</t>
   </si>
@@ -77,21 +77,12 @@
     <t>begin if</t>
   </si>
   <si>
-    <t>then playerVal = playerVal + trainVal</t>
-  </si>
-  <si>
     <t>else</t>
   </si>
   <si>
-    <t>then overByMaxVal = (playerVal + trainVal) - maxVal</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
-    <t>playerVal = (playerVal + trainVal) - overByVal</t>
-  </si>
-  <si>
     <t>setPlayerStatistic(playerID int, position String, playerVal int)</t>
   </si>
   <si>
@@ -110,10 +101,25 @@
     <t>MAX_VAL int</t>
   </si>
   <si>
-    <t>playerVal + trainVal &lt;= MAX_VAL</t>
-  </si>
-  <si>
-    <t>playerVal + trainVal &gt; MAX_VAL</t>
+    <t xml:space="preserve">    playerVal + trainVal &lt;= MAX_VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    then playerVal = playerVal + trainVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    begin if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        playerVal + trainVal &gt; MAX_VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        then overByMaxVal = (playerVal + trainVal) - maxVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   playerVal = (playerVal + trainVal) - overByVal</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
   <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +607,7 @@
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -679,73 +685,73 @@
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
